--- a/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>106.85191090074225</v>
+        <v>106.85191088303438</v>
       </c>
       <c r="C2">
-        <v>124.63247211450056</v>
+        <v>124.63247214930783</v>
       </c>
       <c r="D2">
-        <v>81.3379889047727</v>
+        <v>81.337989158437892</v>
       </c>
       <c r="E2">
-        <v>164.59729145686924</v>
+        <v>164.59729167581364</v>
       </c>
       <c r="F2">
-        <v>104.10900434257752</v>
+        <v>104.10900435336836</v>
       </c>
       <c r="G2">
-        <v>143.20689220200813</v>
+        <v>143.2068922017931</v>
       </c>
       <c r="H2">
-        <v>98.227632009750494</v>
+        <v>98.227631978827816</v>
       </c>
       <c r="I2">
-        <v>129.17440482279662</v>
+        <v>129.17440483211516</v>
       </c>
       <c r="J2">
-        <v>85.972253838635936</v>
+        <v>85.972253821306566</v>
       </c>
       <c r="K2">
-        <v>94.560789524737459</v>
+        <v>94.560789486527355</v>
       </c>
       <c r="L2">
-        <v>78.406337982463086</v>
+        <v>78.406338009904246</v>
       </c>
       <c r="M2">
-        <v>129.37126414684991</v>
+        <v>129.37126416012967</v>
       </c>
       <c r="N2">
-        <v>169.76763828557938</v>
+        <v>169.76763831018951</v>
       </c>
       <c r="O2">
-        <v>136.52373351446533</v>
+        <v>136.52373354138246</v>
       </c>
       <c r="P2">
-        <v>167.47167557673015</v>
+        <v>167.47167563594192</v>
       </c>
       <c r="Q2">
-        <v>154.74339663465676</v>
+        <v>154.74339664565593</v>
       </c>
       <c r="R2">
-        <v>178.30119081499117</v>
+        <v>178.301190856668</v>
       </c>
       <c r="S2">
-        <v>133.89912080519343</v>
+        <v>133.89912080675782</v>
       </c>
       <c r="T2">
-        <v>137.81777878751194</v>
+        <v>137.81777881022296</v>
       </c>
       <c r="U2">
-        <v>112.50279898259279</v>
+        <v>112.50279895317894</v>
       </c>
       <c r="V2">
-        <v>136.77517663115032</v>
+        <v>136.77517662123739</v>
       </c>
       <c r="W2">
-        <v>188.32465676365382</v>
+        <v>188.32465680847108</v>
       </c>
       <c r="X2">
-        <v>128.67379320253002</v>
+        <v>128.67379319824755</v>
       </c>
       <c r="Y2">
-        <v>141.55589455705478</v>
+        <v>141.55589455245735</v>
       </c>
       <c r="Z2">
-        <v>90.484284345810565</v>
+        <v>90.484284344147909</v>
       </c>
       <c r="AA2">
-        <v>120.49573928854046</v>
+        <v>120.4957392360559</v>
       </c>
       <c r="AB2">
-        <v>117.01463843747246</v>
+        <v>117.01463844685304</v>
       </c>
       <c r="AC2">
-        <v>90.413284913761487</v>
+        <v>90.413284924538516</v>
       </c>
       <c r="AD2">
-        <v>138.5891613415757</v>
+        <v>138.58916132618231</v>
       </c>
       <c r="AE2">
-        <v>108.01043622450493</v>
+        <v>108.01043625296884</v>
       </c>
       <c r="AF2">
-        <v>132.5969058838958</v>
+        <v>132.59690590896901</v>
       </c>
       <c r="AG2">
-        <v>97.673643868123136</v>
+        <v>97.673643963340737</v>
       </c>
       <c r="AH2">
-        <v>121.20601899484862</v>
+        <v>121.20601899332303</v>
       </c>
       <c r="AI2">
-        <v>105.86540959082565</v>
+        <v>105.86540955582203</v>
       </c>
       <c r="AJ2">
-        <v>97.08764200394144</v>
+        <v>97.087642029244009</v>
       </c>
       <c r="AK2">
-        <v>69.913949996500406</v>
+        <v>69.913949960135994</v>
       </c>
       <c r="AL2">
-        <v>119.57973772273138</v>
+        <v>119.57973779189558</v>
       </c>
       <c r="AM2">
-        <v>171.04508439192671</v>
+        <v>171.04508440339703</v>
       </c>
       <c r="AN2">
-        <v>134.77546340296499</v>
+        <v>134.77546343603575</v>
       </c>
       <c r="AO2">
-        <v>163.39238572703096</v>
+        <v>163.39238579718531</v>
       </c>
       <c r="AP2">
-        <v>168.15102895849856</v>
+        <v>168.15102898460367</v>
       </c>
       <c r="AQ2">
-        <v>176.82124563085137</v>
+        <v>176.82124567500404</v>
       </c>
       <c r="AR2">
-        <v>129.77862268273117</v>
+        <v>129.77862268684191</v>
       </c>
       <c r="AS2">
-        <v>134.1459583668381</v>
+        <v>134.14595842807682</v>
       </c>
       <c r="AT2">
-        <v>111.8161321604866</v>
+        <v>111.81613218888258</v>
       </c>
       <c r="AU2">
-        <v>142.03050899615874</v>
+        <v>142.03050902162244</v>
       </c>
       <c r="AV2">
-        <v>173.057670395385</v>
+        <v>173.05767042889542</v>
       </c>
       <c r="AW2">
-        <v>122.41939668799134</v>
+        <v>122.41939672214798</v>
       </c>
       <c r="AX2">
-        <v>149.11567760227308</v>
+        <v>149.1156777185239</v>
       </c>
       <c r="AY2">
-        <v>117.68248228769193</v>
+        <v>117.68248231210686</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.66635757395173</v>
+        <v>123.6663575835002</v>
       </c>
       <c r="C3">
-        <v>105.39238209139511</v>
+        <v>105.39238210411989</v>
       </c>
       <c r="D3">
-        <v>85.719508035283468</v>
+        <v>85.719508073886203</v>
       </c>
       <c r="E3">
-        <v>153.9837091716459</v>
+        <v>153.98370916825002</v>
       </c>
       <c r="F3">
-        <v>127.51611426273426</v>
+        <v>127.51611421291913</v>
       </c>
       <c r="G3">
-        <v>134.98899100731663</v>
+        <v>134.98899098088384</v>
       </c>
       <c r="H3">
-        <v>94.047804091876614</v>
+        <v>94.047804131119165</v>
       </c>
       <c r="I3">
-        <v>134.77703703088667</v>
+        <v>134.77703699991673</v>
       </c>
       <c r="J3">
-        <v>85.269888133179848</v>
+        <v>85.26988813894458</v>
       </c>
       <c r="K3">
-        <v>113.05409642901213</v>
+        <v>113.05409643144174</v>
       </c>
       <c r="L3">
-        <v>109.30585978138771</v>
+        <v>109.30585977943151</v>
       </c>
       <c r="M3">
-        <v>135.87455124679832</v>
+        <v>135.87464684478499</v>
       </c>
       <c r="N3">
-        <v>153.98837884527043</v>
+        <v>153.98837884296645</v>
       </c>
       <c r="O3">
-        <v>128.60867507834126</v>
+        <v>128.60867508149147</v>
       </c>
       <c r="P3">
-        <v>146.36515339338689</v>
+        <v>146.36515343822302</v>
       </c>
       <c r="Q3">
-        <v>147.38314625916354</v>
+        <v>147.38314630074464</v>
       </c>
       <c r="R3">
-        <v>174.52834358198342</v>
+        <v>174.5283435942149</v>
       </c>
       <c r="S3">
-        <v>131.56152982777343</v>
+        <v>131.56152983095953</v>
       </c>
       <c r="T3">
-        <v>144.26693026475607</v>
+        <v>144.26693025059399</v>
       </c>
       <c r="U3">
-        <v>95.308519957003341</v>
+        <v>95.308519956977662</v>
       </c>
       <c r="V3">
-        <v>163.88040944501148</v>
+        <v>163.88040945048968</v>
       </c>
       <c r="W3">
-        <v>124.15138554442434</v>
+        <v>124.15138551001121</v>
       </c>
       <c r="X3">
-        <v>138.15571740888703</v>
+        <v>138.15571737665601</v>
       </c>
       <c r="Y3">
-        <v>136.77476012903816</v>
+        <v>136.77476015969191</v>
       </c>
       <c r="Z3">
-        <v>126.23198947095895</v>
+        <v>126.23198950011002</v>
       </c>
       <c r="AA3">
-        <v>118.82704035097203</v>
+        <v>118.82704035445472</v>
       </c>
       <c r="AB3">
-        <v>101.22585233831074</v>
+        <v>101.22585230869728</v>
       </c>
       <c r="AC3">
-        <v>83.680503179185195</v>
+        <v>83.680503171474214</v>
       </c>
       <c r="AD3">
-        <v>149.68227715120764</v>
+        <v>149.68227707319977</v>
       </c>
       <c r="AE3">
-        <v>131.92231874799748</v>
+        <v>131.92231868910298</v>
       </c>
       <c r="AF3">
-        <v>128.18400568937247</v>
+        <v>128.18400569598774</v>
       </c>
       <c r="AG3">
-        <v>91.910677126654221</v>
+        <v>91.910676894199383</v>
       </c>
       <c r="AH3">
-        <v>137.95957634768092</v>
+        <v>137.95957639433581</v>
       </c>
       <c r="AI3">
-        <v>78.304212811227529</v>
+        <v>78.30421277994445</v>
       </c>
       <c r="AJ3">
-        <v>107.00693489339452</v>
+        <v>107.00693491057059</v>
       </c>
       <c r="AK3">
-        <v>83.289417429409525</v>
+        <v>83.289417456950957</v>
       </c>
       <c r="AL3">
-        <v>136.78026405208382</v>
+        <v>136.78026409858523</v>
       </c>
       <c r="AM3">
-        <v>158.28874639060706</v>
+        <v>158.2887464467814</v>
       </c>
       <c r="AN3">
-        <v>129.4778491268255</v>
+        <v>129.47784913000453</v>
       </c>
       <c r="AO3">
-        <v>191.86176393846765</v>
+        <v>191.86176396357263</v>
       </c>
       <c r="AP3">
-        <v>145.70184921579803</v>
+        <v>145.70184920126542</v>
       </c>
       <c r="AQ3">
-        <v>172.15746889113504</v>
+        <v>172.15746895242879</v>
       </c>
       <c r="AR3">
-        <v>124.25163092588912</v>
+        <v>124.2516309473808</v>
       </c>
       <c r="AS3">
-        <v>135.2492444615807</v>
+        <v>135.24924444692439</v>
       </c>
       <c r="AT3">
-        <v>94.053994557353064</v>
+        <v>94.053994614869666</v>
       </c>
       <c r="AU3">
-        <v>161.36893084404198</v>
+        <v>161.36893083665692</v>
       </c>
       <c r="AV3">
-        <v>124.18919126723311</v>
+        <v>124.18919133094018</v>
       </c>
       <c r="AW3">
-        <v>128.95240848495854</v>
+        <v>128.95240843626593</v>
       </c>
       <c r="AX3">
-        <v>110.38555050618326</v>
+        <v>110.38555046852005</v>
       </c>
       <c r="AY3">
-        <v>130.99819440938359</v>
+        <v>130.99819442088457</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>106.85191088303438</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>124.63247214930783</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>81.337989158437892</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>164.59729167581364</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>104.10900435336836</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>143.2068922017931</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>98.227631978827816</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>129.17440483211516</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>85.972253821306566</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>94.560789486527355</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>78.406338009904246</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>129.37126416012967</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>169.76763831018951</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>136.52373354138246</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>167.47167563594192</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>154.74339664565593</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>178.301190856668</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>133.89912080675782</v>
@@ -588,55 +477,55 @@
         <v>90.484284344147909</v>
       </c>
       <c r="AA2">
-        <v>120.4957392360559</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>117.01463844685304</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>90.413284924538516</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>138.58916132618231</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>108.01043625296884</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>132.59690590896901</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>97.673643963340737</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>121.20601899332303</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>105.86540955582203</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>97.087642029244009</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>69.913949960135994</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>119.57973779189558</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>171.04508440339703</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>134.77546343603575</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>163.39238579718531</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>168.15102898460367</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>176.82124567500404</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>129.77862268684191</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>123.6663575835002</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>105.39238210411989</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>85.719508073886203</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>153.98370916825002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>127.51611421291913</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>134.98899098088384</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>94.047804131119165</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>134.77703699991673</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.26988813894458</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>113.05409643144174</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>109.30585977943151</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>135.87464684478499</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>153.98837884296645</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>128.60867508149147</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>146.36515343822302</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>147.38314630074464</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>174.5283435942149</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>131.56152983095953</v>
@@ -743,55 +629,55 @@
         <v>126.23198950011002</v>
       </c>
       <c r="AA3">
-        <v>118.82704035445472</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>101.22585230869728</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>83.680503171474214</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>149.68227707319977</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>131.92231868910298</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>128.18400569598774</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>91.910676894199383</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>137.95957639433581</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>78.30421277994445</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>107.00693491057059</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>83.289417456950957</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>136.78026409858523</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>158.2887464467814</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>129.47784913000453</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>191.86176396357263</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>145.70184920126542</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>172.15746895242879</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>124.2516309473808</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>106.85191090074225</v>
+        <v>136.52373354138246</v>
       </c>
       <c r="C2">
-        <v>124.63247211450056</v>
+        <v>178.301190856668</v>
       </c>
       <c r="D2">
-        <v>81.3379889047727</v>
+        <v>134.77546343603575</v>
       </c>
       <c r="E2">
-        <v>164.59729145686924</v>
+        <v>176.82124567500404</v>
       </c>
       <c r="F2">
         <v>104.10900434257752</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.66635757395173</v>
+        <v>128.60867508149147</v>
       </c>
       <c r="C3">
-        <v>105.39238209139511</v>
+        <v>174.5283435942149</v>
       </c>
       <c r="D3">
-        <v>85.719508035283468</v>
+        <v>129.47784913000453</v>
       </c>
       <c r="E3">
-        <v>153.9837091716459</v>
+        <v>171.74290764334873</v>
       </c>
       <c r="F3">
         <v>127.51611426273426</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>106.85191090074225</v>
+        <v>169.76763831018951</v>
       </c>
       <c r="C2">
-        <v>124.63247211450056</v>
+        <v>136.52373354138246</v>
       </c>
       <c r="D2">
-        <v>81.3379889047727</v>
+        <v>171.04508440339703</v>
       </c>
       <c r="E2">
-        <v>164.59729145686924</v>
+        <v>134.77546343603575</v>
       </c>
       <c r="F2">
         <v>104.10900434257752</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.66635757395173</v>
+        <v>153.98837884296645</v>
       </c>
       <c r="C3">
-        <v>105.39238209139511</v>
+        <v>128.60867508149147</v>
       </c>
       <c r="D3">
-        <v>85.719508035283468</v>
+        <v>158.2887464467814</v>
       </c>
       <c r="E3">
-        <v>153.9837091716459</v>
+        <v>129.47784913000453</v>
       </c>
       <c r="F3">
         <v>127.51611426273426</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>106.85191088303438</v>
+      </c>
+      <c r="C2">
+        <v>124.63247214930783</v>
+      </c>
+      <c r="D2">
+        <v>81.337989158437892</v>
+      </c>
+      <c r="E2">
+        <v>164.59729167581364</v>
+      </c>
+      <c r="F2">
+        <v>104.10900435336836</v>
+      </c>
+      <c r="G2">
+        <v>143.2068922017931</v>
+      </c>
+      <c r="H2">
+        <v>98.227631978827816</v>
+      </c>
+      <c r="I2">
+        <v>129.17440483211516</v>
+      </c>
+      <c r="J2">
+        <v>85.972253821306566</v>
+      </c>
+      <c r="K2">
+        <v>94.560789486527355</v>
+      </c>
+      <c r="L2">
+        <v>78.406338009904246</v>
+      </c>
+      <c r="M2">
+        <v>129.37126416012967</v>
+      </c>
+      <c r="N2">
         <v>169.76763831018951</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>136.52373354138246</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>167.47167563594192</v>
+      </c>
+      <c r="Q2">
+        <v>154.74339664565593</v>
+      </c>
+      <c r="R2">
+        <v>178.301190856668</v>
+      </c>
+      <c r="S2">
+        <v>133.89912080675782</v>
+      </c>
+      <c r="T2">
+        <v>137.81777881022296</v>
+      </c>
+      <c r="U2">
+        <v>112.50279895317894</v>
+      </c>
+      <c r="V2">
+        <v>136.77517662123739</v>
+      </c>
+      <c r="W2">
+        <v>188.32465680847108</v>
+      </c>
+      <c r="X2">
+        <v>128.67379319824755</v>
+      </c>
+      <c r="Y2">
+        <v>141.55589455245735</v>
+      </c>
+      <c r="Z2">
+        <v>90.484284344147909</v>
+      </c>
+      <c r="AA2">
+        <v>120.4957392360559</v>
+      </c>
+      <c r="AB2">
+        <v>117.01463844685304</v>
+      </c>
+      <c r="AC2">
+        <v>90.413284924538516</v>
+      </c>
+      <c r="AD2">
+        <v>138.58916132618231</v>
+      </c>
+      <c r="AE2">
+        <v>108.01043625296884</v>
+      </c>
+      <c r="AF2">
+        <v>132.59690590896901</v>
+      </c>
+      <c r="AG2">
+        <v>97.673643963340737</v>
+      </c>
+      <c r="AH2">
+        <v>121.20601899332303</v>
+      </c>
+      <c r="AI2">
+        <v>105.86540955582203</v>
+      </c>
+      <c r="AJ2">
+        <v>97.087642029244009</v>
+      </c>
+      <c r="AK2">
+        <v>69.913949960135994</v>
+      </c>
+      <c r="AL2">
+        <v>119.57973779189558</v>
+      </c>
+      <c r="AM2">
         <v>171.04508440339703</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>134.77546343603575</v>
       </c>
-      <c r="F2">
-        <v>104.10900434257752</v>
-      </c>
-      <c r="G2">
-        <v>143.20689220200813</v>
-      </c>
-      <c r="H2">
-        <v>98.227632009750494</v>
-      </c>
-      <c r="I2">
-        <v>129.17440482279662</v>
-      </c>
-      <c r="J2">
-        <v>85.972253838635936</v>
-      </c>
-      <c r="K2">
-        <v>94.560789524737459</v>
-      </c>
-      <c r="L2">
-        <v>78.406337982463086</v>
-      </c>
-      <c r="M2">
-        <v>129.37126414684991</v>
-      </c>
-      <c r="N2">
-        <v>169.76763828557938</v>
-      </c>
-      <c r="O2">
-        <v>136.52373351446533</v>
-      </c>
-      <c r="P2">
-        <v>167.47167557673015</v>
-      </c>
-      <c r="Q2">
-        <v>154.74339663465676</v>
-      </c>
-      <c r="R2">
-        <v>178.30119081499117</v>
-      </c>
-      <c r="S2">
-        <v>133.89912080519343</v>
-      </c>
-      <c r="T2">
-        <v>137.81777878751194</v>
-      </c>
-      <c r="U2">
-        <v>112.50279898259279</v>
-      </c>
-      <c r="V2">
-        <v>136.77517663115032</v>
-      </c>
-      <c r="W2">
-        <v>188.32465676365382</v>
-      </c>
-      <c r="X2">
-        <v>128.67379320253002</v>
-      </c>
-      <c r="Y2">
-        <v>141.55589455705478</v>
-      </c>
-      <c r="Z2">
-        <v>90.484284345810565</v>
-      </c>
-      <c r="AA2">
-        <v>120.49573928854046</v>
-      </c>
-      <c r="AB2">
-        <v>117.01463843747246</v>
-      </c>
-      <c r="AC2">
-        <v>90.413284913761487</v>
-      </c>
-      <c r="AD2">
-        <v>138.5891613415757</v>
-      </c>
-      <c r="AE2">
-        <v>108.01043622450493</v>
-      </c>
-      <c r="AF2">
-        <v>132.5969058838958</v>
-      </c>
-      <c r="AG2">
-        <v>97.673643868123136</v>
-      </c>
-      <c r="AH2">
-        <v>121.20601899484862</v>
-      </c>
-      <c r="AI2">
-        <v>105.86540959082565</v>
-      </c>
-      <c r="AJ2">
-        <v>97.08764200394144</v>
-      </c>
-      <c r="AK2">
-        <v>69.913949996500406</v>
-      </c>
-      <c r="AL2">
-        <v>119.57973772273138</v>
-      </c>
-      <c r="AM2">
-        <v>171.04508439192671</v>
-      </c>
-      <c r="AN2">
-        <v>134.77546340296499</v>
-      </c>
       <c r="AO2">
-        <v>163.39238572703096</v>
+        <v>163.39238579718531</v>
       </c>
       <c r="AP2">
-        <v>167.72667918408825</v>
+        <v>167.72667922970535</v>
       </c>
       <c r="AQ2">
-        <v>176.82124563085137</v>
+        <v>176.82124567500404</v>
       </c>
       <c r="AR2">
-        <v>129.77862268273117</v>
+        <v>129.77862268684191</v>
       </c>
       <c r="AS2">
-        <v>134.1459583668381</v>
+        <v>134.14595842807682</v>
       </c>
       <c r="AT2">
-        <v>111.8161321604866</v>
+        <v>111.81613218888258</v>
       </c>
       <c r="AU2">
-        <v>142.03050899615874</v>
+        <v>142.03050902162244</v>
       </c>
       <c r="AV2">
-        <v>173.057670395385</v>
+        <v>173.05767042889542</v>
       </c>
       <c r="AW2">
-        <v>122.41939668799134</v>
+        <v>122.41939672214798</v>
       </c>
       <c r="AX2">
-        <v>149.11567760227308</v>
+        <v>149.1156777185239</v>
       </c>
       <c r="AY2">
-        <v>117.68248228769193</v>
+        <v>117.68248231210686</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>123.6663575835002</v>
+      </c>
+      <c r="C3">
+        <v>105.39238210411989</v>
+      </c>
+      <c r="D3">
+        <v>85.719508073886203</v>
+      </c>
+      <c r="E3">
+        <v>153.98370916825002</v>
+      </c>
+      <c r="F3">
+        <v>127.51611421291913</v>
+      </c>
+      <c r="G3">
+        <v>134.98899098088384</v>
+      </c>
+      <c r="H3">
+        <v>94.047804131119165</v>
+      </c>
+      <c r="I3">
+        <v>134.77703699991673</v>
+      </c>
+      <c r="J3">
+        <v>85.26988813894458</v>
+      </c>
+      <c r="K3">
+        <v>113.05409643144174</v>
+      </c>
+      <c r="L3">
+        <v>109.30585977943151</v>
+      </c>
+      <c r="M3">
+        <v>135.87464684478499</v>
+      </c>
+      <c r="N3">
         <v>153.98837884296645</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>128.60867508149147</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>146.36515343822302</v>
+      </c>
+      <c r="Q3">
+        <v>147.38314630074464</v>
+      </c>
+      <c r="R3">
+        <v>174.5283435942149</v>
+      </c>
+      <c r="S3">
+        <v>131.56152983095953</v>
+      </c>
+      <c r="T3">
+        <v>144.26693025059399</v>
+      </c>
+      <c r="U3">
+        <v>95.308519956977662</v>
+      </c>
+      <c r="V3">
+        <v>163.88040945048968</v>
+      </c>
+      <c r="W3">
+        <v>124.32733466302511</v>
+      </c>
+      <c r="X3">
+        <v>138.15571737665601</v>
+      </c>
+      <c r="Y3">
+        <v>136.77476015969191</v>
+      </c>
+      <c r="Z3">
+        <v>126.23198950011002</v>
+      </c>
+      <c r="AA3">
+        <v>118.82704035445472</v>
+      </c>
+      <c r="AB3">
+        <v>101.22585230869728</v>
+      </c>
+      <c r="AC3">
+        <v>83.680503171474214</v>
+      </c>
+      <c r="AD3">
+        <v>149.68227707319977</v>
+      </c>
+      <c r="AE3">
+        <v>131.92231868910298</v>
+      </c>
+      <c r="AF3">
+        <v>128.18400569598774</v>
+      </c>
+      <c r="AG3">
+        <v>91.910676894199383</v>
+      </c>
+      <c r="AH3">
+        <v>139.29549354939479</v>
+      </c>
+      <c r="AI3">
+        <v>78.30421277994445</v>
+      </c>
+      <c r="AJ3">
+        <v>107.00693491057059</v>
+      </c>
+      <c r="AK3">
+        <v>83.289417456950957</v>
+      </c>
+      <c r="AL3">
+        <v>136.78026409858523</v>
+      </c>
+      <c r="AM3">
         <v>158.2887464467814</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>129.47784913000453</v>
       </c>
-      <c r="F3">
-        <v>127.51611426273426</v>
-      </c>
-      <c r="G3">
-        <v>134.98899100731663</v>
-      </c>
-      <c r="H3">
-        <v>94.047804091876614</v>
-      </c>
-      <c r="I3">
-        <v>134.77703703088667</v>
-      </c>
-      <c r="J3">
-        <v>85.269888133179848</v>
-      </c>
-      <c r="K3">
-        <v>113.05409642901213</v>
-      </c>
-      <c r="L3">
-        <v>109.30585978138771</v>
-      </c>
-      <c r="M3">
-        <v>135.87455124679832</v>
-      </c>
-      <c r="N3">
-        <v>153.98837884527043</v>
-      </c>
-      <c r="O3">
-        <v>128.60867507834126</v>
-      </c>
-      <c r="P3">
-        <v>146.36515339338689</v>
-      </c>
-      <c r="Q3">
-        <v>147.38314625916354</v>
-      </c>
-      <c r="R3">
-        <v>174.52834358198342</v>
-      </c>
-      <c r="S3">
-        <v>131.56152982777343</v>
-      </c>
-      <c r="T3">
-        <v>144.26693026475607</v>
-      </c>
-      <c r="U3">
-        <v>95.308519957003341</v>
-      </c>
-      <c r="V3">
-        <v>163.88040944501148</v>
-      </c>
-      <c r="W3">
-        <v>124.32733450702402</v>
-      </c>
-      <c r="X3">
-        <v>138.15571740888703</v>
-      </c>
-      <c r="Y3">
-        <v>136.77476012903816</v>
-      </c>
-      <c r="Z3">
-        <v>126.23198947095895</v>
-      </c>
-      <c r="AA3">
-        <v>118.82704035097203</v>
-      </c>
-      <c r="AB3">
-        <v>101.22585233831074</v>
-      </c>
-      <c r="AC3">
-        <v>83.680503179185195</v>
-      </c>
-      <c r="AD3">
-        <v>149.68227715120764</v>
-      </c>
-      <c r="AE3">
-        <v>131.92231874799748</v>
-      </c>
-      <c r="AF3">
-        <v>128.18400568937247</v>
-      </c>
-      <c r="AG3">
-        <v>91.910677126654221</v>
-      </c>
-      <c r="AH3">
-        <v>139.29549350662404</v>
-      </c>
-      <c r="AI3">
-        <v>78.304212811227529</v>
-      </c>
-      <c r="AJ3">
-        <v>107.00693489339452</v>
-      </c>
-      <c r="AK3">
-        <v>83.289417429409525</v>
-      </c>
-      <c r="AL3">
-        <v>136.78026405208382</v>
-      </c>
-      <c r="AM3">
-        <v>158.28874639060706</v>
-      </c>
-      <c r="AN3">
-        <v>129.4778491268255</v>
-      </c>
       <c r="AO3">
-        <v>191.86176393846765</v>
+        <v>191.86176396357263</v>
       </c>
       <c r="AP3">
-        <v>145.70184921579803</v>
+        <v>145.70184920126542</v>
       </c>
       <c r="AQ3">
-        <v>171.74290752544562</v>
+        <v>171.74290764334873</v>
       </c>
       <c r="AR3">
-        <v>124.25163092588912</v>
+        <v>124.2516309473808</v>
       </c>
       <c r="AS3">
-        <v>135.2492444615807</v>
+        <v>135.24924444692439</v>
       </c>
       <c r="AT3">
-        <v>94.053994557353064</v>
+        <v>94.053994614869666</v>
       </c>
       <c r="AU3">
-        <v>161.36893084404198</v>
+        <v>161.36893083665692</v>
       </c>
       <c r="AV3">
-        <v>124.18919126723311</v>
+        <v>124.18919133094018</v>
       </c>
       <c r="AW3">
-        <v>128.95240848495854</v>
+        <v>128.95240843626593</v>
       </c>
       <c r="AX3">
-        <v>110.38555050618326</v>
+        <v>110.38555046852005</v>
       </c>
       <c r="AY3">
-        <v>130.99819440938359</v>
+        <v>130.99819442088457</v>
       </c>
     </row>
   </sheetData>
